--- a/medicine/Psychotrope/Fête_des_vendanges/Fête_des_vendanges.xlsx
+++ b/medicine/Psychotrope/Fête_des_vendanges/Fête_des_vendanges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges</t>
+          <t>Fête_des_vendanges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fête des vendanges est une fête ayant lieu au ban des vendanges, organisées dans certaines localités ou régions viticoles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges</t>
+          <t>Fête_des_vendanges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la Rome Antique, les Vinalia (Vinalia priora et Vinalia rustica), étaient deux fêtes des vendanges en l'honneur des dieux Jupiter et Vénus.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges</t>
+          <t>Fête_des_vendanges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Approche sociologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fêtes des vendanges sont organisées à la « levée du ban des vendanges », acte administratif qui autorise, en France, les vignerons et les vendangeurs habilités, à cueillir les grappes. Généralement organisées à des dates différées, ces professionnels fêtent la collecte autour d’un verre, en perpétuant les traditions locales[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fêtes des vendanges sont organisées à la « levée du ban des vendanges », acte administratif qui autorise, en France, les vignerons et les vendangeurs habilités, à cueillir les grappes. Généralement organisées à des dates différées, ces professionnels fêtent la collecte autour d’un verre, en perpétuant les traditions locales.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges</t>
+          <t>Fête_des_vendanges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,30 +591,348 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En Allemagne
-La fête des vendanges de Neustadt an der Weinstrasse en Rhénanie-Palatinat[2] est organisée dans une des plus grandes régions viticoles de l'Allemagne.
-En Argentine
-La fiesta de la vendimia de Mendoza (province de Mendoza) reste une des plus notoires. La ville étant située dans l'hémisphère sud, cette fête est organisée à la fin de l'été durant le mois de février et non durant les mois d'août ou de septembre comme dans l'hémisphère nord.
-Au Chili
-La fiesta de la vendimia de Santa Cruz de la province de Colchagua (Région O'Higgins)[3].
-En Espagne
-De nombreuses fêtes locales se déroulent en Espagne, à l'occasion des vendages, donc notamment :
-La fête des vendanges de Jerez de la Frontera dans la province de Cadix (Andalousie)[4].
-La fête des vendanges de La Rioja à Logroño[5].
-Aux États-Unis
-Les États-Unis comptent de nombreuses régions viticoles. Celles-ci organisent, généralement entre août à octobre, divers festivals afin de célébrer la saison de la cueillette du raisin, tels que le « Sonoma County Harvest Fair » (Californie), les « Harvest Wine Weekend » de Paso Robles (dans le même état) et de Las Cruces (Nouveau Mexique), le « Virginia Wine and Garlic Festival » à Amherst (Virginie), le « Hunt Country Harvest Festival », à Branchport, (État de New York)[6].
-En France
-Pays ayant une tradition viticole ancienne, de nombreuses fêtes des vendanges sont organisées en France, dont Banyuls-sur-Mer, Gruissan[7], en Occitanie, à Biot en PACA ou encore à Bellefond[8], en Bourgogne-Franche-Comté. Les plus célèbres de ces célébrations (pour leur ancienneté et leur notoriété) sont :
+          <t>En Allemagne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fête des vendanges de Neustadt an der Weinstrasse en Rhénanie-Palatinat est organisée dans une des plus grandes régions viticoles de l'Allemagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Argentine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fiesta de la vendimia de Mendoza (province de Mendoza) reste une des plus notoires. La ville étant située dans l'hémisphère sud, cette fête est organisée à la fin de l'été durant le mois de février et non durant les mois d'août ou de septembre comme dans l'hémisphère nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au Chili</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fiesta de la vendimia de Santa Cruz de la province de Colchagua (Région O'Higgins).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En Espagne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>De nombreuses fêtes locales se déroulent en Espagne, à l'occasion des vendages, donc notamment :
+La fête des vendanges de Jerez de la Frontera dans la province de Cadix (Andalousie).
+La fête des vendanges de La Rioja à Logroño.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les États-Unis comptent de nombreuses régions viticoles. Celles-ci organisent, généralement entre août à octobre, divers festivals afin de célébrer la saison de la cueillette du raisin, tels que le « Sonoma County Harvest Fair » (Californie), les « Harvest Wine Weekend » de Paso Robles (dans le même état) et de Las Cruces (Nouveau Mexique), le « Virginia Wine and Garlic Festival » à Amherst (Virginie), le « Hunt Country Harvest Festival », à Branchport, (État de New York).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pays ayant une tradition viticole ancienne, de nombreuses fêtes des vendanges sont organisées en France, dont Banyuls-sur-Mer, Gruissan, en Occitanie, à Biot en PACA ou encore à Bellefond, en Bourgogne-Franche-Comté. Les plus célèbres de ces célébrations (pour leur ancienneté et leur notoriété) sont :
 La fête des vendanges de 1909 à Bordeaux (Nouvelle-Aquitaine).
-La fête des vendanges de Montmartre à Paris (Île-de-France).
-En Italie
-Dans la région du Chianti, connue mondialement par son vin, la fête de la cueillette du raisin (« Festa dell’Uva ») de Vagliagli, province de Sienne (Toscane)[9] s'organise généralement au mois de septembre.
-Au Mexique
-Les célébrations de la fête des vendanges sont généralement organisées dans ce pays tropical entre le 14 juillet et le 15 septembre selon les différentes régions, très souvent en même temps que d'autres fêtes populaires[10].
-En Serbie
-La fête des vendanges de Vrsac dans le Banat serbe ( Voïvodine) est organisée par la Confrérie de Saint Théodore des Vins de Banat[11].
-En Suisse
-Deux fêtes sont notables sont organisées en Romandie :
+La fête des vendanges de Montmartre à Paris (Île-de-France).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En Italie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la région du Chianti, connue mondialement par son vin, la fête de la cueillette du raisin (« Festa dell’Uva ») de Vagliagli, province de Sienne (Toscane) s'organise généralement au mois de septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Au Mexique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les célébrations de la fête des vendanges sont généralement organisées dans ce pays tropical entre le 14 juillet et le 15 septembre selon les différentes régions, très souvent en même temps que d'autres fêtes populaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En Serbie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fête des vendanges de Vrsac dans le Banat serbe ( Voïvodine) est organisée par la Confrérie de Saint Théodore des Vins de Banat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fêtes des vendanges dans le monde</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En Suisse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Deux fêtes sont notables sont organisées en Romandie :
 La fête des vendanges de Neuchâtel (canton de Neuchâtel).
 La fête des vendanges du Vully (canton de Fribourg).</t>
         </is>
